--- a/plan/life_sensibility/life_sensibility.xlsx
+++ b/plan/life_sensibility/life_sensibility.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18585" windowHeight="7860"/>
+    <workbookView windowWidth="18570" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>短见,远见</t>
   </si>
@@ -43,6 +43,13 @@
     <t>不计较后果就是傻，不顾死活就是
 亡命徒--王德顺</t>
   </si>
+  <si>
+    <t>最近下了炉石传说在手机玩，花的时间比较多，发现自己
+输的次数很多，赢的次数很少，大部分时间都是在给别人
+送经验，非常不爽快。然后就反省自己：为什么自己花了那么多的时间，到头来却什么也没得到。渐渐地发现自己
+其实是在疲惫地应付一场又一场的对战，没有规划好时间，没有规划好战斗场数，所以自己其实是被别人控制着节奏，不是在玩游戏，而是被游戏玩。玩这个游戏，我只有一个目的，那就是赢得更多的战斗场数，所以开始给自己的空闲时间定一个规划，每天积累一点，那就是一天只玩三场，每一场都全神对待。
+慢慢觉得人生如戏，如果不规划好自己的时间，自己会一直沦为生活的配角</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +61,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,30 +70,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,14 +99,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +115,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,8 +168,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,6 +201,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,11 +417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,19 +435,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +456,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,159 +503,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1015,15 +1018,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:B7"/>
+  <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -1059,6 +1062,11 @@
     <row r="7" ht="27" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="162" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_sensibility/life_sensibility.xlsx
+++ b/plan/life_sensibility/life_sensibility.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>短见,远见</t>
   </si>
@@ -50,15 +50,21 @@
 其实是在疲惫地应付一场又一场的对战，没有规划好时间，没有规划好战斗场数，所以自己其实是被别人控制着节奏，不是在玩游戏，而是被游戏玩。玩这个游戏，我只有一个目的，那就是赢得更多的战斗场数，所以开始给自己的空闲时间定一个规划，每天积累一点，那就是一天只玩三场，每一场都全神对待。
 慢慢觉得人生如戏，如果不规划好自己的时间，自己会一直沦为生活的配角</t>
   </si>
+  <si>
+    <t>把自己打造成社交货币</t>
+  </si>
+  <si>
+    <t>情面，体面，场面</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -77,6 +83,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -85,6 +92,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,14 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +150,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -121,17 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,10 +181,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,54 +198,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +420,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,23 +482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,23 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,142 +540,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1018,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:B8"/>
+  <dimension ref="B1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="47.75" customWidth="1"/>
   </cols>
@@ -1039,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="2:2">
+    <row r="3" ht="40.5" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1065,8 +1068,18 @@
       </c>
     </row>
     <row r="8" ht="162" spans="2:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_sensibility/life_sensibility.xlsx
+++ b/plan/life_sensibility/life_sensibility.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>短见,远见</t>
   </si>
@@ -56,6 +56,9 @@
   <si>
     <t>情面，体面，场面</t>
   </si>
+  <si>
+    <t>以利益来衡量事情是否该做</t>
+  </si>
 </sst>
 </file>
 
@@ -63,8 +66,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,18 +86,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,8 +131,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,28 +165,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,64 +178,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +211,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +426,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,17 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,33 +515,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:B10"/>
+  <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1082,6 +1085,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/life_sensibility/life_sensibility.xlsx
+++ b/plan/life_sensibility/life_sensibility.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>短见,远见</t>
   </si>
@@ -59,6 +59,9 @@
   <si>
     <t>以利益来衡量事情是否该做</t>
   </si>
+  <si>
+    <t>好时尽量多收取,差时立即收手等待时间</t>
+  </si>
 </sst>
 </file>
 
@@ -67,8 +70,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,8 +82,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,21 +92,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +105,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -125,15 +174,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,77 +203,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,55 +235,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,127 +367,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +426,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,18 +455,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,21 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,19 +497,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:B11"/>
+  <dimension ref="B1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1090,6 +1093,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/life_sensibility/life_sensibility.xlsx
+++ b/plan/life_sensibility/life_sensibility.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18570" windowHeight="7860"/>
+    <workbookView windowWidth="18585" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>短见,远见</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>好时尽量多收取,差时立即收手等待时间</t>
+  </si>
+  <si>
+    <t>可行性，计划，执行，总结</t>
+  </si>
+  <si>
+    <t>心学，运动，节俭，学习</t>
   </si>
 </sst>
 </file>
@@ -68,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,16 +88,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,30 +133,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,76 +165,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,31 +241,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,17 +455,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,8 +492,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,8 +516,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:B12"/>
+  <dimension ref="B1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1096,6 +1102,16 @@
     <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
